--- a/design/KhaiQuatManHinh.xlsx
+++ b/design/KhaiQuatManHinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\watch-store\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0AEA31-2A3C-41C8-AD94-39A312166D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610CACA-8995-4A2A-9E1B-AD7EA952B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -208,22 +208,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9458,6 +9445,189 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D205159-AF11-BD8E-D080-3E86E36CC3D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2552700" y="1270000"/>
+          <a:ext cx="3467100" cy="2012950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB3EC21-A530-427E-82F1-7532C032075A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2565400" y="3390900"/>
+          <a:ext cx="3467100" cy="1327150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Callout: Left Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA6319AF-DC09-B49A-5C4B-F427544E30EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6083300" y="1689100"/>
+          <a:ext cx="736600" cy="527050"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;a&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9878,6 +10048,258 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> ký</a:t>
           </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Callout: Right Arrow 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE0D4DE0-B903-920B-8ECC-12E26EAB4262}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="2228850"/>
+          <a:ext cx="1308100" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> type="submit"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Callout: Left Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66FFCF9D-819C-5073-6310-95413E715608}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394200" y="1828800"/>
+          <a:ext cx="1250950" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input type="password"&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Callout: Down Arrow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE98236B-576F-B788-0882-07E1B5130B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3556000" y="584200"/>
+          <a:ext cx="1092200" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input type="email"&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11846E33-EF89-E612-556C-45FA61D6FF07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3651250" y="2825750"/>
+          <a:ext cx="558800" cy="254000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -10215,449 +10637,449 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="23" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="8"/>
-      <c r="Q23" s="8"/>
-      <c r="R23" s="8"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="8"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
-      <c r="AA23" s="8"/>
-      <c r="AB23" s="8"/>
-      <c r="AC23" s="8"/>
-      <c r="AD23" s="8"/>
-      <c r="AE23" s="8"/>
-      <c r="AF23" s="8"/>
-      <c r="AG23" s="8"/>
-      <c r="AH23" s="8"/>
-      <c r="AI23" s="8"/>
-      <c r="AJ23" s="8"/>
-      <c r="AK23" s="8"/>
-      <c r="AL23" s="8"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
+      <c r="O23" s="3"/>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="3"/>
+      <c r="R23" s="3"/>
+      <c r="S23" s="3"/>
+      <c r="T23" s="3"/>
+      <c r="U23" s="3"/>
+      <c r="V23" s="3"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
+      <c r="O24" s="3"/>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="3"/>
+      <c r="R24" s="3"/>
+      <c r="S24" s="3"/>
+      <c r="T24" s="3"/>
+      <c r="U24" s="3"/>
+      <c r="V24" s="3"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B25" s="8"/>
-      <c r="C25" s="9" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="8"/>
-      <c r="X25" s="8"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
-      <c r="AA25" s="8"/>
-      <c r="AB25" s="8"/>
-      <c r="AC25" s="8"/>
-      <c r="AD25" s="8"/>
-      <c r="AE25" s="8"/>
-      <c r="AF25" s="8"/>
-      <c r="AG25" s="8"/>
-      <c r="AH25" s="8"/>
-      <c r="AI25" s="8"/>
-      <c r="AJ25" s="8"/>
-      <c r="AK25" s="8"/>
-      <c r="AL25" s="8"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B26" s="8"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="11" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="8"/>
-      <c r="X26" s="8"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
-      <c r="AA26" s="8"/>
-      <c r="AB26" s="8"/>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8"/>
-      <c r="AE26" s="8"/>
-      <c r="AF26" s="8"/>
-      <c r="AG26" s="8"/>
-      <c r="AH26" s="8"/>
-      <c r="AI26" s="8"/>
-      <c r="AJ26" s="8"/>
-      <c r="AK26" s="8"/>
-      <c r="AL26" s="8"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B27" s="8"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="11" t="s">
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="8"/>
-      <c r="AC27" s="8"/>
-      <c r="AD27" s="8"/>
-      <c r="AE27" s="8"/>
-      <c r="AF27" s="8"/>
-      <c r="AG27" s="8"/>
-      <c r="AH27" s="8"/>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="8"/>
-      <c r="AK27" s="8"/>
-      <c r="AL27" s="8"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B28" s="8"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8"/>
-      <c r="T28" s="8"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="8"/>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
-      <c r="AA28" s="8"/>
-      <c r="AB28" s="8"/>
-      <c r="AC28" s="8"/>
-      <c r="AD28" s="8"/>
-      <c r="AE28" s="8"/>
-      <c r="AF28" s="8"/>
-      <c r="AG28" s="8"/>
-      <c r="AH28" s="8"/>
-      <c r="AI28" s="8"/>
-      <c r="AJ28" s="8"/>
-      <c r="AK28" s="8"/>
-      <c r="AL28" s="8"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
-      <c r="S29" s="8"/>
-      <c r="T29" s="8"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="8"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
-      <c r="AA29" s="8"/>
-      <c r="AB29" s="8"/>
-      <c r="AC29" s="8"/>
-      <c r="AD29" s="8"/>
-      <c r="AE29" s="8"/>
-      <c r="AF29" s="8"/>
-      <c r="AG29" s="8"/>
-      <c r="AH29" s="8"/>
-      <c r="AI29" s="8"/>
-      <c r="AJ29" s="8"/>
-      <c r="AK29" s="8"/>
-      <c r="AL29" s="8"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="3"/>
+      <c r="R29" s="3"/>
+      <c r="S29" s="3"/>
+      <c r="T29" s="3"/>
+      <c r="U29" s="3"/>
+      <c r="V29" s="3"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="3"/>
+      <c r="Z29" s="3"/>
+      <c r="AA29" s="3"/>
+      <c r="AB29" s="3"/>
+      <c r="AC29" s="3"/>
+      <c r="AD29" s="3"/>
+      <c r="AE29" s="3"/>
+      <c r="AF29" s="3"/>
+      <c r="AG29" s="3"/>
+      <c r="AH29" s="3"/>
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+      <c r="AK29" s="3"/>
+      <c r="AL29" s="3"/>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="11" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
-      <c r="AA30" s="8"/>
-      <c r="AB30" s="8"/>
-      <c r="AC30" s="8"/>
-      <c r="AD30" s="8"/>
-      <c r="AE30" s="8"/>
-      <c r="AF30" s="8"/>
-      <c r="AG30" s="8"/>
-      <c r="AH30" s="8"/>
-      <c r="AI30" s="8"/>
-      <c r="AJ30" s="8"/>
-      <c r="AK30" s="8"/>
-      <c r="AL30" s="8"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
+      <c r="Q30" s="3"/>
+      <c r="R30" s="3"/>
+      <c r="S30" s="3"/>
+      <c r="T30" s="3"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="3"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="3"/>
+      <c r="Z30" s="3"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="11" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="8"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
-      <c r="AA31" s="8"/>
-      <c r="AB31" s="8"/>
-      <c r="AC31" s="8"/>
-      <c r="AD31" s="8"/>
-      <c r="AE31" s="8"/>
-      <c r="AF31" s="8"/>
-      <c r="AG31" s="8"/>
-      <c r="AH31" s="8"/>
-      <c r="AI31" s="8"/>
-      <c r="AJ31" s="8"/>
-      <c r="AK31" s="8"/>
-      <c r="AL31" s="8"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="3"/>
+      <c r="R31" s="3"/>
+      <c r="S31" s="3"/>
+      <c r="T31" s="3"/>
+      <c r="U31" s="3"/>
+      <c r="V31" s="3"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="3"/>
+      <c r="Z31" s="3"/>
+      <c r="AA31" s="3"/>
+      <c r="AB31" s="3"/>
+      <c r="AC31" s="3"/>
+      <c r="AD31" s="3"/>
+      <c r="AE31" s="3"/>
+      <c r="AF31" s="3"/>
+      <c r="AG31" s="3"/>
+      <c r="AH31" s="3"/>
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+      <c r="AK31" s="3"/>
+      <c r="AL31" s="3"/>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B32" s="8"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
-      <c r="P32" s="8"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
-      <c r="AA32" s="8"/>
-      <c r="AB32" s="8"/>
-      <c r="AC32" s="8"/>
-      <c r="AD32" s="8"/>
-      <c r="AE32" s="8"/>
-      <c r="AF32" s="8"/>
-      <c r="AG32" s="8"/>
-      <c r="AH32" s="8"/>
-      <c r="AI32" s="8"/>
-      <c r="AJ32" s="8"/>
-      <c r="AK32" s="8"/>
-      <c r="AL32" s="8"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
+      <c r="Q32" s="3"/>
+      <c r="R32" s="3"/>
+      <c r="S32" s="3"/>
+      <c r="T32" s="3"/>
+      <c r="U32" s="3"/>
+      <c r="V32" s="3"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="3"/>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="3"/>
+      <c r="AB32" s="3"/>
+      <c r="AC32" s="3"/>
+      <c r="AD32" s="3"/>
+      <c r="AE32" s="3"/>
+      <c r="AF32" s="3"/>
+      <c r="AG32" s="3"/>
+      <c r="AH32" s="3"/>
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+      <c r="AK32" s="3"/>
+      <c r="AL32" s="3"/>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.35">
-      <c r="B33" s="8"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="Z33" s="8"/>
-      <c r="AA33" s="8"/>
-      <c r="AB33" s="8"/>
-      <c r="AC33" s="8"/>
-      <c r="AD33" s="8"/>
-      <c r="AE33" s="8"/>
-      <c r="AF33" s="8"/>
-      <c r="AG33" s="8"/>
-      <c r="AH33" s="8"/>
-      <c r="AI33" s="8"/>
-      <c r="AJ33" s="8"/>
-      <c r="AK33" s="8"/>
-      <c r="AL33" s="8"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="3"/>
+      <c r="S33" s="3"/>
+      <c r="T33" s="3"/>
+      <c r="U33" s="3"/>
+      <c r="V33" s="3"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="3"/>
+      <c r="Z33" s="3"/>
+      <c r="AA33" s="3"/>
+      <c r="AB33" s="3"/>
+      <c r="AC33" s="3"/>
+      <c r="AD33" s="3"/>
+      <c r="AE33" s="3"/>
+      <c r="AF33" s="3"/>
+      <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
+      <c r="AK33" s="3"/>
+      <c r="AL33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10884,7 +11306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB1CE43-FC53-4439-A77E-9307732A5DBC}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -10905,8 +11327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359B592-07C0-44E5-81F1-1E3ECF7FDCC6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10920,8 +11342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D41C7B9-AC72-4DF7-9D48-3124C87DBACD}">
   <dimension ref="B24:AD29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/design/KhaiQuatManHinh.xlsx
+++ b/design/KhaiQuatManHinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\watch-store\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610CACA-8995-4A2A-9E1B-AD7EA952B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C30B1F-9D64-449B-8A69-5E17B927C821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -841,6 +841,266 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Callout: Right Arrow 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8DECA4-35BE-47EF-8C93-77707BE34F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="971550" y="2476500"/>
+          <a:ext cx="1308100" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> type="submit"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Callout: Left Arrow 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD30DAA6-64C0-4DB4-828D-DF4231ABA949}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4387850" y="2089150"/>
+          <a:ext cx="1250950" cy="787400"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input type="password"&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>374650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Callout: Down Arrow 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD0AC95D-E383-4158-A8FE-056A1F22CC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3422650" y="488950"/>
+          <a:ext cx="1092200" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input type="text"&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Callout: Right Arrow 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA5B1899-B7FD-4FE0-BF43-32F1AF02054D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="1689100"/>
+          <a:ext cx="1435100" cy="742950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> type="email"</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10301,6 +10561,67 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Callout: Up Arrow 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4927DDFC-1259-B7B4-70E3-C622D49A6F45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3594100" y="3168650"/>
+          <a:ext cx="679450" cy="463550"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrowCallout">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>&lt;a&gt;</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -10630,8 +10951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2AD3F9-1070-4FF7-B021-081679F3CF7D}">
   <dimension ref="B23:AL33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11091,7 +11412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F297C-8D9B-41A8-B062-533AEA179E0D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
@@ -11106,7 +11427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D45C3C-EBC4-47B8-9939-3936ABD77533}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -11188,8 +11509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C9894-87F3-4727-81CD-CED562206CAE}">
   <dimension ref="B1:B28"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11224,7 +11545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B6F237-8BDE-41F7-BD94-D5FB859A1554}">
   <dimension ref="B23:B27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -11265,7 +11586,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF11B45-4FA8-4498-8503-BA330FC9A6CB}">
   <dimension ref="B1:B30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
@@ -11306,7 +11627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB1CE43-FC53-4439-A77E-9307732A5DBC}">
   <dimension ref="B1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
@@ -11327,7 +11648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359B592-07C0-44E5-81F1-1E3ECF7FDCC6}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -11342,7 +11663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D41C7B9-AC72-4DF7-9D48-3124C87DBACD}">
   <dimension ref="B24:AD29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>

--- a/design/KhaiQuatManHinh.xlsx
+++ b/design/KhaiQuatManHinh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\watch-store\design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C30B1F-9D64-449B-8A69-5E17B927C821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0974AE96-AA25-4796-AC8B-5FF39ED7EC2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="799" firstSheet="5" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Header" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="54">
   <si>
     <t>Header</t>
   </si>
@@ -82,13 +82,7 @@
     <t>Trang chủ</t>
   </si>
   <si>
-    <t>Trang sản phẩm</t>
-  </si>
-  <si>
     <t>Giỏ hàng</t>
-  </si>
-  <si>
-    <t>Thông tin tài khoản</t>
   </si>
   <si>
     <t>- Khi nhấn vào nút "Mua ngay" sẽ được đưa đến trang sản phẩm</t>
@@ -162,6 +156,60 @@
   <si>
     <t>- Khi nhấn 'Đặt hàng' thì sẽ cho người dùng nhập địa chỉ và số điện thoại để đặt hàng</t>
   </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Process. Name</t>
+  </si>
+  <si>
+    <t>BASIC DESIGN</t>
+  </si>
+  <si>
+    <t>Function</t>
+  </si>
+  <si>
+    <t>Create by</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>LN.Tú</t>
+  </si>
+  <si>
+    <t>Trang sản phẩm</t>
+  </si>
+  <si>
+    <t>Chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>BÁN ĐỒNG HỒ</t>
+  </si>
+  <si>
+    <t>Tài khoản</t>
+  </si>
+  <si>
+    <t>Lịch sử đơn hàng</t>
+  </si>
+  <si>
+    <t>Đăng nhập</t>
+  </si>
+  <si>
+    <t>Đăng ký</t>
+  </si>
+  <si>
+    <t>Quản lý đơn hàng</t>
+  </si>
+  <si>
+    <t>Quản lý sản phẩm</t>
+  </si>
 </sst>
 </file>
 
@@ -187,15 +235,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -203,12 +257,123 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -223,6 +388,40 @@
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -427,13 +626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -487,13 +686,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -557,13 +756,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>539750</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -632,13 +831,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>565150</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -702,13 +901,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -770,13 +969,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>527050</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -845,13 +1044,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -914,13 +1113,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -975,13 +1174,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1036,13 +1235,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>463550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2332,13 +2531,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2392,13 +2591,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2452,13 +2651,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2517,13 +2716,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2590,13 +2789,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2667,13 +2866,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2740,268 +2939,268 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683A1AFB-D715-409D-ACA4-246E92ABFB92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="1447800"/>
+          <a:ext cx="3035300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>260350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07BDE19-3CBC-47E1-9339-B001E01EB025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2698750" y="1644650"/>
+          <a:ext cx="3035300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A48215-0114-4B38-AB18-223E8B2A710F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="1835150"/>
+          <a:ext cx="3035300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Connector 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B78519-A3F6-4BFC-944C-129477995757}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2705100" y="2019300"/>
+          <a:ext cx="3035300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="Straight Connector 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C14668-996D-4D97-99DD-E852FFCDCCDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2692400" y="2222500"/>
+          <a:ext cx="3035300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{683A1AFB-D715-409D-ACA4-246E92ABFB92}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2692400" y="1447800"/>
-          <a:ext cx="3035300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>260350</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="10" name="Straight Connector 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B07BDE19-3CBC-47E1-9339-B001E01EB025}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2698750" y="1644650"/>
-          <a:ext cx="3035300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Straight Connector 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2A48215-0114-4B38-AB18-223E8B2A710F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2692400" y="1835150"/>
-          <a:ext cx="3035300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="12" name="Straight Connector 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81B78519-A3F6-4BFC-944C-129477995757}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2705100" y="2019300"/>
-          <a:ext cx="3035300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="Straight Connector 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69C14668-996D-4D97-99DD-E852FFCDCCDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2692400" y="2222500"/>
-          <a:ext cx="3035300" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="12700"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>5</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3046,13 +3245,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3097,13 +3296,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3148,13 +3347,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -3199,13 +3398,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>222250</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3269,13 +3468,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3339,13 +3538,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3409,13 +3608,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>234950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3479,13 +3678,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4373,13 +4572,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4433,13 +4632,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>120650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4486,13 +4685,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4556,13 +4755,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>107950</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4619,13 +4818,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4679,13 +4878,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4748,13 +4947,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4801,13 +5000,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>184150</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>336550</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4876,13 +5075,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4929,13 +5128,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5004,13 +5203,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5057,13 +5256,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5132,13 +5331,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>450850</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>577850</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5185,13 +5384,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5260,13 +5459,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>146050</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>196850</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5321,13 +5520,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5380,13 +5579,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7786,13 +7985,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7846,13 +8045,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>603250</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>44450</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7906,13 +8105,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7971,13 +8170,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>44450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8048,13 +8247,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>425450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8121,13 +8320,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8194,13 +8393,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8264,13 +8463,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8334,13 +8533,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>107950</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8409,13 +8608,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8477,13 +8676,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8546,13 +8745,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8607,13 +8806,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>298450</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10949,17 +11148,73 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2AD3F9-1070-4FF7-B021-081679F3CF7D}">
-  <dimension ref="B23:AL33"/>
+  <dimension ref="A1:AL33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="5"/>
@@ -11001,7 +11256,7 @@
     <row r="24" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B24" s="3"/>
       <c r="C24" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -11042,7 +11297,7 @@
     <row r="25" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -11084,7 +11339,7 @@
       <c r="B26" s="3"/>
       <c r="C26" s="4"/>
       <c r="D26" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -11125,7 +11380,7 @@
       <c r="B27" s="3"/>
       <c r="C27" s="4"/>
       <c r="D27" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -11204,7 +11459,7 @@
     <row r="29" spans="2:38" x14ac:dyDescent="0.35">
       <c r="B29" s="3"/>
       <c r="C29" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -11246,7 +11501,7 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -11287,7 +11542,7 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -11403,6 +11658,18 @@
       <c r="AL33" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11410,14 +11677,83 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{637F297C-8D9B-41A8-B062-533AEA179E0D}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11425,14 +11761,83 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96D45C3C-EBC4-47B8-9939-3936ABD77533}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11471,18 +11876,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1C9910-1D7F-4C7D-B411-085FC87E5C90}">
-  <dimension ref="B1:B37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" t="s">
@@ -11491,15 +11947,27 @@
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11507,117 +11975,313 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12C9894-87F3-4727-81CD-CED562206CAE}">
-  <dimension ref="B1:B28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="G1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74B6F237-8BDE-41F7-BD94-D5FB859A1554}">
-  <dimension ref="B23:B27"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF11B45-4FA8-4498-8503-BA330FC9A6CB}">
-  <dimension ref="B1:B30"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11625,20 +12289,83 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB1CE43-FC53-4439-A77E-9307732A5DBC}">
-  <dimension ref="B1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11646,14 +12373,83 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B359B592-07C0-44E5-81F1-1E3ECF7FDCC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -11661,17 +12457,73 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D41C7B9-AC72-4DF7-9D48-3124C87DBACD}">
-  <dimension ref="B24:AD29"/>
+  <dimension ref="A1:AD29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G1" sqref="G1:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="11"/>
+      <c r="F1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="14"/>
+      <c r="I1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="11"/>
+    </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="5"/>
@@ -11705,7 +12557,7 @@
     <row r="25" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B25" s="3"/>
       <c r="C25" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -11738,7 +12590,7 @@
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B26" s="3"/>
       <c r="C26" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -11771,7 +12623,7 @@
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B27" s="3"/>
       <c r="C27" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -11805,7 +12657,7 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -11838,7 +12690,7 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -11868,6 +12720,18 @@
       <c r="AD29" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
